--- a/biology/Botanique/Pourriture_molle_bactérienne/Pourriture_molle_bactérienne.xlsx
+++ b/biology/Botanique/Pourriture_molle_bactérienne/Pourriture_molle_bactérienne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pourriture_molle_bact%C3%A9rienne</t>
+          <t>Pourriture_molle_bactérienne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La pourriture molle bactérienne est une maladie des végétaux causée par différents types de bactéries. Celles-ci sont le plus souvent des espèces de bactéries gram-négatives, comme Erwinia, Pectobacterium et Pseudomonas. 
@@ -499,7 +511,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pourriture_molle_bact%C3%A9rienne</t>
+          <t>Pourriture_molle_bactérienne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,7 +529,9 @@
           <t>Hôtes et symptômes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La liste des plantes hôtes est très vaste et comprend notamment : la banane, les haricots, le chou, la carotte, le manioc, le café, le maïs, le coton, l'oignon, des crucifères, le poivre, la pomme de terre, la patate douce et la tomate.
 Chaque plante hôte peut présenter différents types de symptômes. 
@@ -530,9 +544,6 @@
 Comme chez la carotte, le tubercule entier peut être consumé en ne laissant que l'épiderme dans le sol. 
 Le feuillage devient faible et chlorotique, avec des feuilles tournés vers le haut, et des lésions sur la tige. 
 La tige pourrit également et devient spongieuse avec ses lésions incolores ou brunes.
-Stade dormant asymptomatique
-Les pourritures molles sont caractérisés par la macération distincte des parois cellulaires de leurs hôtes au moyen d'enzymes pectolytiques, et la digestion ultérieure du liquide intracellulaire au fur et à mesure que les bactéries se développent. Nos connaissances sur l'interaction de l'agent pathogène avec son hôte sont encore limitées, surtout sur les premiers stades de développement quand la bactérie s'attache à son hôte et commence à se développer à l'intérieur, sans symptômes apparents.
-En fait, les bactéries peuvent développer de grandes populations au sein d'une plante avant que les symptômes puissent être vus. On ne sait pas exactement pourquoi les bactéries ont ce stade de dormance, ni quels facteurs influencent leur virulence.
 </t>
         </is>
       </c>
@@ -543,7 +554,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pourriture_molle_bact%C3%A9rienne</t>
+          <t>Pourriture_molle_bactérienne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -558,10 +569,50 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Hôtes et symptômes</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Stade dormant asymptomatique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les pourritures molles sont caractérisés par la macération distincte des parois cellulaires de leurs hôtes au moyen d'enzymes pectolytiques, et la digestion ultérieure du liquide intracellulaire au fur et à mesure que les bactéries se développent. Nos connaissances sur l'interaction de l'agent pathogène avec son hôte sont encore limitées, surtout sur les premiers stades de développement quand la bactérie s'attache à son hôte et commence à se développer à l'intérieur, sans symptômes apparents.
+En fait, les bactéries peuvent développer de grandes populations au sein d'une plante avant que les symptômes puissent être vus. On ne sait pas exactement pourquoi les bactéries ont ce stade de dormance, ni quels facteurs influencent leur virulence.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pourriture_molle_bactérienne</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pourriture_molle_bact%C3%A9rienne</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Cycle de la maladie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Une plante peut être infectée par la pourriture molle bactérienne de plusieurs manières. Elle peut être l'hôte de la bactérie, soit par transmission par les graines ou semences, soit par inoculation directe dans des blessures ou par des ouvertures naturelles, telles que les  (stomates ou lenticelles) chez les plantes adultes, ce qui est le cas le plus courant.
 Mais, quand une plante est infectée et que les conditions sont favorables, les bactéries commencent immédiatement à se nourrir à partir des liquides libérés par les cellules lésées et à se reproduire.
@@ -575,31 +626,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Pourriture_molle_bact%C3%A9rienne</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pourriture_molle_bactérienne</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Pourriture_molle_bact%C3%A9rienne</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Environnement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La croissance des bactéries est possible entre 0 et 32 °C, les conditions idéales se situant entre 21 et 27 °C.
 Le transport et le stockage après récolte sont difficiles à assurer dans des environnements chauds de type tropical lorsque l'air n'est pas correctement ventilé pendant ces opérations.
@@ -608,102 +661,108 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Pourriture_molle_bact%C3%A9rienne</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pourriture_molle_bactérienne</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Pourriture_molle_bact%C3%A9rienne</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Moyens de lutte</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Peu de choses peuvent être faites pour maîtriser la propagation des pourritures molles bactériennes, et les plus efficaces d'entre elles consistent simplement à observer des pratiques culturales saines.
-On doit retirer tous les débris végétaux des entrepôts de stockage, et les murs et les sols doivent être désinfectés soit avec du formaldéhyde ou du sulfate de cuivre entre les récoltes. Il faut éviter autant que possible de léser les tissus de plantes, maintenir à un niveau bas l'humidité et la température dans l'installation de stockage en utilisant un système de ventilation adéquat. Ces procédures se sont révélées très efficaces pour maîtriser la pourriture molle dans les stockages de pommes de terre du  Wisconsin[1].
+On doit retirer tous les débris végétaux des entrepôts de stockage, et les murs et les sols doivent être désinfectés soit avec du formaldéhyde ou du sulfate de cuivre entre les récoltes. Il faut éviter autant que possible de léser les tissus de plantes, maintenir à un niveau bas l'humidité et la température dans l'installation de stockage en utilisant un système de ventilation adéquat. Ces procédures se sont révélées très efficaces pour maîtriser la pourriture molle dans les stockages de pommes de terre du  Wisconsin.
 Il est également utile que les plantes soient plantées dans des sols bien drainés, à des intervalles appropriés pour une ventilation adéquate entre elles. Il existe peu de variétés résistantes à la maladie et aucune n'est immune, aussi la rotation des plantes sensibles avec des plantes non-sensibles, comme les céréales, est une pratique positive pour limiter l'infection de la pourriture molle.
 La lutte contre les insectes vecteurs spécifiques est également un bon moyen de maîtrise de la propagation de la maladie au champ et en phase de  stockage. des traitements du sol et du feuillage à l'aide d'insecticides aident à lutter contre les insectes qui causent souvent des lésions des plantes et disséminent ainsi les bactéries.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Pourriture_molle_bact%C3%A9rienne</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pourriture_molle_bactérienne</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Pourriture_molle_bact%C3%A9rienne</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Importance économique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Du fait de sa vaste gamme de plantes hôtes, la pourriture molle bactérienne est capable de dévaster de nombreuses cultures importantes à la fois au champ et en cours de stockage et de transport partout dans le monde. 
-Presque tous les légumes frais sont susceptibles d'être infectés par la pourriture molle bactérienne, soit qu'ils aient des organes de réserves charnus : pomme de terre, carotte, radis, oignon, etc., des fruits charnus : tomate, aubergine, concombre, courge, etc. ou des tiges et feuilles succulentes : chou, céleri, épinard, laitue, etc[2]. 
+Presque tous les légumes frais sont susceptibles d'être infectés par la pourriture molle bactérienne, soit qu'ils aient des organes de réserves charnus : pomme de terre, carotte, radis, oignon, etc., des fruits charnus : tomate, aubergine, concombre, courge, etc. ou des tiges et feuilles succulentes : chou, céleri, épinard, laitue, etc. 
 Mais, les légumes ne sont pas les seuls à y être sensibles ; dans les régions tropicales, la pourriture molle se développe sur des cultures importantes comme le maïs, le manioc, la banane, même lorsque celle-ci est encore dans les champs.
 Plus précisément, la pourriture molle des pommes de terre, appelée aussi jambe noire, peut causer une énorme baisse de rendement, et c'est la maladie bactérienne la plus grave à laquelle les pommes de terre sont exposées. 
 Un producteur de pommes de terre peut perdre la totalité de sa récolte en raison des conditions insuffisantes de l'installation de stockage.
 Cette maladie peut avoir des conséquences sur les clients par la réduction des quantités de produits mis en vente, une baisse de la qualité, et une augmentation des coûts, tant à cause des mesures préventives que pour la préparation des produits partiellement affectés.
-Globalement, la pourritures molles bactérienne provoque une plus grande perte de produits que n'importe quelle autre maladie bactérienne connue[2].
+Globalement, la pourritures molles bactérienne provoque une plus grande perte de produits que n'importe quelle autre maladie bactérienne connue.
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Pourriture_molle_bact%C3%A9rienne</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Pourriture_molle_bactérienne</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Pourriture_molle_bact%C3%A9rienne</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Origine</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Erwinia carotovora ou Pectobacterium carotovorum, est une bactérie gram négatif, anaérobie et en forme de bâtonnet. Elle doit son épithète spécifique, carotovora, au fait qu'elle a été isolée d'abord chez la carotte.
 Cette bactérie se rencontre principalement dans les régions tropicales et chaudes du monde. 
